--- a/tables/DE/exp2/DE_table1_dim10.xlsx
+++ b/tables/DE/exp2/DE_table1_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23,37 +22,37 @@
     <t>Best</t>
   </si>
   <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
     <t>Mean</t>
   </si>
   <si>
-    <t>Median</t>
-  </si>
-  <si>
     <t>Std</t>
   </si>
   <si>
     <t>Success Rate</t>
   </si>
   <si>
-    <t>Worst</t>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>Fc1</t>
+  </si>
+  <si>
+    <t>Fc2</t>
+  </si>
+  <si>
+    <t>Fc6</t>
+  </si>
+  <si>
+    <t>Fc7</t>
   </si>
   <si>
     <t>Fc9</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>Fc2</t>
-  </si>
-  <si>
-    <t>Fc6</t>
-  </si>
-  <si>
-    <t>Fc7</t>
-  </si>
-  <si>
-    <t>Fc1</t>
   </si>
 </sst>
 </file>
@@ -70,7 +69,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,14 +104,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -397,18 +401,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -438,22 +442,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>7.838607</v>
+        <v>0.06754400000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>28.986674</v>
+        <v>27.817729</v>
       </c>
       <c r="D2" t="n">
-        <v>27.755326</v>
+        <v>1.298433</v>
       </c>
       <c r="E2" t="n">
-        <v>12.500881</v>
+        <v>3.395156</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.742687</v>
       </c>
       <c r="G2" t="n">
-        <v>60.823539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +465,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06754400000000001</v>
+        <v>218822.679148</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395156</v>
+        <v>71395048.680576</v>
       </c>
       <c r="D3" t="n">
-        <v>1.298433</v>
+        <v>9218706.618487</v>
       </c>
       <c r="E3" t="n">
-        <v>4.742687</v>
+        <v>14620604.211877</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>16184793.225555</v>
       </c>
       <c r="G3" t="n">
-        <v>27.817729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,19 +491,19 @@
         <v>4501341.472907</v>
       </c>
       <c r="C4" t="n">
-        <v>539937960.049946</v>
+        <v>2520542316.717356</v>
       </c>
       <c r="D4" t="n">
         <v>275066199.127894</v>
       </c>
       <c r="E4" t="n">
+        <v>539937960.049946</v>
+      </c>
+      <c r="F4" t="n">
         <v>627868863.143072</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
-        <v>2520542316.717356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,19 +514,19 @@
         <v>1.305127</v>
       </c>
       <c r="C5" t="n">
-        <v>5.302732</v>
+        <v>8.077939000000001</v>
       </c>
       <c r="D5" t="n">
         <v>5.512057</v>
       </c>
       <c r="E5" t="n">
+        <v>5.302732</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.684117</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>8.077939000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,19 +537,19 @@
         <v>0.913873</v>
       </c>
       <c r="C6" t="n">
-        <v>17.383763</v>
+        <v>83.633985</v>
       </c>
       <c r="D6" t="n">
         <v>15.133886</v>
       </c>
       <c r="E6" t="n">
+        <v>17.383763</v>
+      </c>
+      <c r="F6" t="n">
         <v>15.360749</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
-        <v>83.633985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,22 +557,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>218822.679148</v>
+        <v>7.838607</v>
       </c>
       <c r="C7" t="n">
-        <v>14620604.211877</v>
+        <v>60.823539</v>
       </c>
       <c r="D7" t="n">
-        <v>9218706.618487</v>
+        <v>27.755326</v>
       </c>
       <c r="E7" t="n">
-        <v>16184793.225555</v>
+        <v>28.986674</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12.500881</v>
       </c>
       <c r="G7" t="n">
-        <v>71395048.680576</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
